--- a/docentes/Moreno Arollo Anél - Estadisticos 20211.xlsx
+++ b/docentes/Moreno Arollo Anél - Estadisticos 20211.xlsx
@@ -468,16 +468,19 @@
         <v>24</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>24</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -536,7 +539,7 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -598,16 +601,19 @@
         <v>24</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>24</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
